--- a/biology/Botanique/Association_des_journalistes_du_jardin_et_de_l'horticulture/Association_des_journalistes_du_jardin_et_de_l'horticulture.xlsx
+++ b/biology/Botanique/Association_des_journalistes_du_jardin_et_de_l'horticulture/Association_des_journalistes_du_jardin_et_de_l'horticulture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_des_journalistes_du_jardin_et_de_l%27horticulture</t>
+          <t>Association_des_journalistes_du_jardin_et_de_l'horticulture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association des journalistes du jardin et de l'horticulture ou AJJH est une association française qui s'adresse aux journalistes, illustrateurs, auteurs et photographes. Son annuaire publié chaque début d'année recense 300 adhérents parmi lesquels des membres bienfaiteurs que sont des agences de communications et des partenaires du monde du jardin, de l'horticulture et de l'outillage.
 Depuis 2023, l'AJJH a son siège à Paris, à la Société nationale d'horticulture de France, 84 rue de Grenelle, Paris 7e.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_des_journalistes_du_jardin_et_de_l%27horticulture</t>
+          <t>Association_des_journalistes_du_jardin_et_de_l'horticulture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Buts de l'association</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but de l'association est de développer les liens entre les différents professionnels du jardin (édition d'un annuaire par exemple) et de développer ce domaine d'activité.
 L’AJJH organise chaque année des rendez-vous clés dont des soirées ou des rencontres entre professionnels. Elle décerne chaque année en novembre, le Prix Saint-Fiacre.. L'association entretient de bonnes relations avec d'autres associations de journalistes ainsi que des instances du tourisme (Comités Départementaux du Tourisme, Comités Régionaux du Tourisme) afin de proposer des journées découvertes de jardins. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_des_journalistes_du_jardin_et_de_l%27horticulture</t>
+          <t>Association_des_journalistes_du_jardin_et_de_l'horticulture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Prix décernés par l'association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Prix Saint-Fiacre (patron des jardiniers) récompense depuis 1971 les parutions de livres sur les thèmes du jardinage et l'horticulture...
-Enfin, le Prix de la rose prime depuis 1969 un rosier toutes catégories confondues (buissons à grandes fleurs, buissons à fleurs groupées, miniatures, arbustifs et couvre-sol, grimpants).  Depuis 2003, ce prix est décerné durant le concours international de roses nouvelles de Bagatelle. En 1980, par exemple, il a été attribué à la rose 'La Sevillana' (obtention de Meilland), en 1992 à 'Régine Crespin' (Delbard), en 2000 à 'Isabelle Autissier' (Adam) et en 2017 à une rose couvre-sol de chez Tantau, 'Bienenweide'[1].</t>
+Enfin, le Prix de la rose prime depuis 1969 un rosier toutes catégories confondues (buissons à grandes fleurs, buissons à fleurs groupées, miniatures, arbustifs et couvre-sol, grimpants).  Depuis 2003, ce prix est décerné durant le concours international de roses nouvelles de Bagatelle. En 1980, par exemple, il a été attribué à la rose 'La Sevillana' (obtention de Meilland), en 1992 à 'Régine Crespin' (Delbard), en 2000 à 'Isabelle Autissier' (Adam) et en 2017 à une rose couvre-sol de chez Tantau, 'Bienenweide'.</t>
         </is>
       </c>
     </row>
